--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 6 (22–26 de septiembre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 6 (22–26 de septiembre 2025).xlsx
@@ -662,7 +662,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -687,7 +687,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45922.0</v>
@@ -712,7 +712,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45922.0</v>
@@ -737,7 +737,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45922.0</v>
@@ -762,7 +762,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45922.0</v>
@@ -787,7 +787,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45923.0</v>
@@ -812,7 +812,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45923.0</v>
@@ -837,7 +837,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45923.0</v>
@@ -862,7 +862,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45923.0</v>
@@ -887,7 +887,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45924.0</v>
@@ -912,7 +912,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45924.0</v>
@@ -937,7 +937,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45924.0</v>
@@ -962,7 +962,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45924.0</v>
@@ -987,7 +987,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>45925.0</v>
@@ -1012,7 +1012,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>45925.0</v>
@@ -1037,7 +1037,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>45925.0</v>
@@ -1062,7 +1062,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="B23" s="6">
         <v>45925.0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="B24" s="6">
         <v>45926.0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="B25" s="6">
         <v>45926.0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="B26" s="6">
         <v>45926.0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="B27" s="6">
         <v>45926.0</v>
       </c>
